--- a/template/settlement_template.xlsx
+++ b/template/settlement_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA26BE9-752D-460D-BDD9-F31DDDE06294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A712EF-642D-4E9E-945C-22FE39263972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="2" r:id="rId1"/>
@@ -99,7 +99,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -108,7 +107,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 date</t>
@@ -120,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>西安阿伯塔资环分析测试技术有限公司</t>
   </si>
@@ -251,6 +249,14 @@
   </si>
   <si>
     <t>&amp;=list.oldSampleNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=list.entrust.jiaFangCompany</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +278,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -284,22 +289,19 @@
       <b/>
       <sz val="16"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,14 +336,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>46034</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAED1B6-B793-4901-A0CA-5F25D2AA3489}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,9 +1056,10 @@
     <col min="7" max="7" width="28.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1071,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1098,8 +1099,11 @@
       <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1126,6 +1130,9 @@
       </c>
       <c r="I3" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
